--- a/KnowledgeRepo.xlsx
+++ b/KnowledgeRepo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>学习资料整理</t>
   </si>
@@ -48,16 +48,22 @@
   <si>
     <t>http://www.cnblogs.com/SanMaoSpace/p/3157293.html</t>
   </si>
+  <si>
+    <t>数据库面试题</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/Java3y/p/8507258.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,14 +77,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,15 +91,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,14 +106,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -132,66 +114,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,21 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,16 +431,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,16 +470,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,16 +538,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,55 +556,55 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -607,58 +613,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +1000,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:L7"/>
+      <selection activeCell="G8" sqref="G8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1094,11 +1100,15 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1512,6 +1522,7 @@
     <hyperlink ref="G5" r:id="rId3" display="https://www.cnblogs.com/Java3y/archive/2018/03/05/8507258.html"/>
     <hyperlink ref="G6" r:id="rId4" display="http://www.cnblogs.com/yonghuacui/p/6179987.html"/>
     <hyperlink ref="G7" r:id="rId5" display="http://www.cnblogs.com/SanMaoSpace/p/3157293.html"/>
+    <hyperlink ref="G8" r:id="rId6" display="https://www.cnblogs.com/Java3y/p/8507258.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/KnowledgeRepo.xlsx
+++ b/KnowledgeRepo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14535" windowHeight="12810"/>
+    <workbookView windowWidth="14580" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>学习资料整理</t>
   </si>
@@ -54,15 +54,21 @@
   <si>
     <t>https://www.cnblogs.com/Java3y/p/8507258.html</t>
   </si>
+  <si>
+    <t>Entity Framework Code First数据库自动更新</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/sdtsfhh/article/details/16910411</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -76,7 +82,52 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,83 +141,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,90 +233,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,18 +378,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,156 +532,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,7 +1009,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:L8"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1042,7 +1051,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
@@ -1058,7 +1067,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="1"/>
@@ -1074,7 +1083,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="1"/>
@@ -1090,7 +1099,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1"/>
@@ -1106,7 +1115,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="1"/>
@@ -1116,11 +1125,15 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1523,6 +1536,7 @@
     <hyperlink ref="G6" r:id="rId4" display="http://www.cnblogs.com/yonghuacui/p/6179987.html"/>
     <hyperlink ref="G7" r:id="rId5" display="http://www.cnblogs.com/SanMaoSpace/p/3157293.html"/>
     <hyperlink ref="G8" r:id="rId6" display="https://www.cnblogs.com/Java3y/p/8507258.html"/>
+    <hyperlink ref="G9" r:id="rId7" display="http://blog.csdn.net/sdtsfhh/article/details/16910411"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/KnowledgeRepo.xlsx
+++ b/KnowledgeRepo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14580" windowHeight="12810"/>
+    <workbookView windowWidth="14535" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>学习资料整理</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>http://blog.csdn.net/sdtsfhh/article/details/16910411</t>
+  </si>
+  <si>
+    <t>面试</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/wan23333/article/details/78847204</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/github_37410569/article/details/54958868</t>
   </si>
 </sst>
 </file>
@@ -67,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -97,9 +106,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,8 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,58 +188,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,18 +242,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,24 +356,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,13 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,30 +404,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,60 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,11 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,73 +553,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -619,58 +628,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1018,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="G11" sqref="G11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1141,11 +1150,15 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1153,11 +1166,15 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1537,6 +1554,8 @@
     <hyperlink ref="G7" r:id="rId5" display="http://www.cnblogs.com/SanMaoSpace/p/3157293.html"/>
     <hyperlink ref="G8" r:id="rId6" display="https://www.cnblogs.com/Java3y/p/8507258.html"/>
     <hyperlink ref="G9" r:id="rId7" display="http://blog.csdn.net/sdtsfhh/article/details/16910411"/>
+    <hyperlink ref="G10" r:id="rId8" display="http://blog.csdn.net/wan23333/article/details/78847204"/>
+    <hyperlink ref="G11" r:id="rId9" display="http://blog.csdn.net/github_37410569/article/details/54958868"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/KnowledgeRepo.xlsx
+++ b/KnowledgeRepo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14535" windowHeight="12810"/>
+    <workbookView windowWidth="19095" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>学习资料整理</t>
   </si>
@@ -68,6 +68,54 @@
   </si>
   <si>
     <t>http://blog.csdn.net/github_37410569/article/details/54958868</t>
+  </si>
+  <si>
+    <t>类继承</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/yelongbupt/archive/2013/05/03/3056015.html</t>
+  </si>
+  <si>
+    <t>常用html标签</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/progor/archive/2018/04/01/8687120.html</t>
+  </si>
+  <si>
+    <t>EF多对多</t>
+  </si>
+  <si>
+    <t>https://segmentfault.com/a/1190000004152660</t>
+  </si>
+  <si>
+    <t>sql经典语句</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/yoga21/p/8711239.html</t>
+  </si>
+  <si>
+    <t>MVC猿教程</t>
+  </si>
+  <si>
+    <t>http://www.yuanjiaocheng.net/mvc/mvc-controller.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .net MVC使用Session验证用户登录</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/hao-1234-1234/archive/2018/04/10/8776739.html</t>
+  </si>
+  <si>
+    <t>C#排序算法小结</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/WangJinYang/p/3553792.html</t>
+  </si>
+  <si>
+    <t>Json序列化</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wangbaicheng1477865665/p/wbc_json.html</t>
   </si>
 </sst>
 </file>
@@ -76,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -106,6 +154,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,6 +194,37 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,75 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +273,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,19 +290,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,163 +446,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,16 +485,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,11 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,21 +543,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +601,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,112 +622,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1066,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:L11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1108,7 +1156,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1"/>
@@ -1124,7 +1172,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="1"/>
@@ -1172,7 +1220,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="1"/>
@@ -1182,11 +1230,15 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1194,11 +1246,15 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1206,11 +1262,15 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1218,11 +1278,15 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1230,11 +1294,15 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1242,11 +1310,15 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1254,11 +1326,15 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1266,11 +1342,15 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1556,6 +1636,14 @@
     <hyperlink ref="G9" r:id="rId7" display="http://blog.csdn.net/sdtsfhh/article/details/16910411"/>
     <hyperlink ref="G10" r:id="rId8" display="http://blog.csdn.net/wan23333/article/details/78847204"/>
     <hyperlink ref="G11" r:id="rId9" display="http://blog.csdn.net/github_37410569/article/details/54958868"/>
+    <hyperlink ref="G12" r:id="rId10" display="http://www.cnblogs.com/yelongbupt/archive/2013/05/03/3056015.html"/>
+    <hyperlink ref="G13" r:id="rId11" display="https://www.cnblogs.com/progor/archive/2018/04/01/8687120.html"/>
+    <hyperlink ref="G14" r:id="rId12" display="https://segmentfault.com/a/1190000004152660"/>
+    <hyperlink ref="G15" r:id="rId13" display="http://www.cnblogs.com/yoga21/p/8711239.html"/>
+    <hyperlink ref="G16" r:id="rId14" display="http://www.yuanjiaocheng.net/mvc/mvc-controller.html"/>
+    <hyperlink ref="G17" r:id="rId15" display="https://www.cnblogs.com/hao-1234-1234/archive/2018/04/10/8776739.html"/>
+    <hyperlink ref="G18" r:id="rId16" display="https://www.cnblogs.com/WangJinYang/p/3553792.html"/>
+    <hyperlink ref="G19" r:id="rId17" display="http://www.cnblogs.com/wangbaicheng1477865665/p/wbc_json.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
